--- a/Test UC4.xlsx
+++ b/Test UC4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158" count="158">
   <si>
     <t>Project Name</t>
   </si>
@@ -341,6 +341,208 @@
   </si>
   <si>
     <t>1. Código Único : CT001                  2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                         4. Design e Tecnologia                     5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>UC07_TS001</t>
+  </si>
+  <si>
+    <t>UC04_TS001</t>
+  </si>
+  <si>
+    <t>UC04_TS002</t>
+  </si>
+  <si>
+    <t>1. Código Único inválido.                   2. Descrição breve válida.               3. Descrição detalhada válida.       4. Área de atividade válida.            5. Graus de proficiência válidos</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único com formato diferente do padronizado. 
+2. Introduzir uma Descrição breve válida. 
+3. Introduzir uma Descrição detalhada válida.                               4. Informar uma Área de atividade correspondente válida.                                           5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Código Único : Código 123               2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                         4. Design e Tecnologia                     5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "Código de registro de Competência Técnica inválido.</t>
+  </si>
+  <si>
+    <t>Popup: Falha no registro de Competência Técnica.</t>
+  </si>
+  <si>
+    <t>Passa</t>
+  </si>
+  <si>
+    <t>Não passa</t>
+  </si>
+  <si>
+    <t>UC04_TS003</t>
+  </si>
+  <si>
+    <t>1. Código Único válida.                   2. Descrição breve inválida.               3. Descrição detalhada válida.       4. Área de atividade válida.            5. Graus de proficiência válidos</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Não introduz uma Descrição breve. 
+3. Introduzir uma Descrição detalhada válida.                               4. Informar uma Área de atividade correspondente válida.                                           5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Código Único : CT001                  2. Descrição breve : (vazio)                                            3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                         4. Design e Tecnologia                     5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "Descrição breve para registro de Competência Técnica obrigatória."</t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "Código de registro de Competência Técnica inválido."</t>
+  </si>
+  <si>
+    <t>UC04_TS004</t>
+  </si>
+  <si>
+    <t>1. Código Único válido.                    2. Descrição breve válida.               3. Descrição detalhada inválida.       4. Área de atividade válida.            5. Graus de proficiência válidos</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Não Introduz uma Descrição detalhada.                                         4. Informar uma Área de atividade correspondente válida.                                           5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Não Introduz uma Descrição detalhada.                                         4. Informar uma Área de atividade correspondente válida.                                               5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Não introduz uma Descrição breve. 
+3. Introduzir uma Descrição detalhada válida.                               4. Informar uma Área de atividade correspondente válida.                                               5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Código Único : CT001                  2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: (vazio)                                    4. Design e Tecnologia                     5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "Descrição detalhada para registro de Competência Técnica obrigatória."</t>
+  </si>
+  <si>
+    <t>1. Ao menos um Administrativo registrado na plataforma.                                     2. Ao menos uma Área de atividade registrada na plataforma.</t>
+  </si>
+  <si>
+    <t>1. Ao menos um Administrativo registrado na plataforma.                                     2. Ao menos uma Área de atividade registrada na plataforma.</t>
+  </si>
+  <si>
+    <t>1. Ao menos um Administrativo registrado na plataforma.                                     2. Ao menos uma Área de atividade registrada na plataforma.</t>
+  </si>
+  <si>
+    <t>1. Ao menos um Administrativo registrado na plataforma.                                     2. Ao menos uma Área de atividade registrada na plataforma.</t>
+  </si>
+  <si>
+    <t>UC04_TS005</t>
+  </si>
+  <si>
+    <t>1. Código Único válido.                        2. Descrição breve válida.               3. Descrição detalhada válida.       4. Área de atividade válida.            5. Graus de proficiência válidos</t>
+  </si>
+  <si>
+    <t>1. Código Único válido.                             2. Descrição breve válida.               3. Descrição detalhada válida.       4. Área de atividade válida.            5. Graus de proficiência válidos</t>
+  </si>
+  <si>
+    <t>1. Código Único válido.                             2. Descrição breve válida.                    3. Descrição detalhada válida.       4. Área de atividade válida.            5. Graus de proficiência válidos</t>
+  </si>
+  <si>
+    <t>1. Código Único válido.                             2. Descrição breve válida.                        3. Descrição detalhada válida.       4. Área de atividade válida.            5. Graus de proficiência válidos</t>
+  </si>
+  <si>
+    <t>1. Código Único válido.                             2. Descrição breve válida.                        3. Descrição detalhada válida.           4. Área de atividade inválida.            5. Graus de proficiência válidos</t>
+  </si>
+  <si>
+    <t>1. Código Único válido.                             2. Descrição breve válida.                        3. Descrição detalhada válida.               4. Área de atividade inválida.            5. Graus de proficiência válidos</t>
+  </si>
+  <si>
+    <t>1. Código Único válido.                             2. Descrição breve válida.                        3. Descrição detalhada válida.               4. Área de atividade inválida.                  5. Graus de proficiência válidos</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Introduzir uma Descrição detalhada válida.                                        4. Informar uma Área de atividade não existente.                                           5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Introduzir uma Descrição detalhada válida.                                              4. Informar uma Área de atividade não existente.                                           5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Introduzir uma Descrição detalhada válida.                                                   4. Informar uma Área de atividade não existente.                                           5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Introduzir uma Descrição detalhada válida.                                                        4. Informar uma Área de atividade não existente.                                           5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Introduzir uma Descrição detalhada válida.                                                              4. Informar uma Área de atividade não existente.                                           5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Introduzir uma Descrição detalhada válida.                                                              4. Informar uma Área de atividade não existente.                                                  5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Introduzir uma Descrição detalhada válida.                                                              4. Informar uma Área de atividade não existente.                                                        5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Código Único : CT001                       2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                         4. Design e Tecnologia                     5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>1. Código Único : CT001                            2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                         4. Design e Tecnologia                     5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>1. Código Único : CT001                            2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                         4. Confecção Têxtil.                        5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>1. Código Único : CT001                            2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                              4. Confecção Têxtil.                           5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>1. Código Único : CT001                            2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                                   4. Confecção Têxtil.                           5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>1. Código Único : CT001                            2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                                        4. Confecção Têxtil.                           5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>1. Código Único : CT001                            2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                                        4. Confecção Têxtil.                                   5. Graus de proficiência: Médio e Alto</t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "Não existe a Área de Atividade informada. "</t>
+  </si>
+  <si>
+    <t>UC04_TS006</t>
+  </si>
+  <si>
+    <t>1. Código Único válido.                             2. Descrição breve válida.                        3. Descrição detalhada válida.               4. Área de atividade válida.                  5. Graus de proficiência inválidos</t>
+  </si>
+  <si>
+    <t>1. Código Único válido.                             2. Descrição breve válida.                        3. Descrição detalhada válida.               4. Área de atividade válida.                     5. Graus de proficiência inválidos</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Introduzir uma Descrição detalhada válida.                                                              4. Informar uma Área de atividade correspondente válida.                                                   5. Introduzir graus de competência válidos.</t>
+  </si>
+  <si>
+    <t>1. Introduzir um Código único válido. 
+2. Introduzir uma Descrição breve válida. 
+3. Introduzir uma Descrição detalhada válida.                                                              4. Informar uma Área de atividade correspondente válida.                                                   5. Introduzir graus de competência inválidos.</t>
+  </si>
+  <si>
+    <t>1. Código Único : CT001                            2. Descrição breve : Back end design para websites                                              3. Descrição detalhada: Experiência comprovada no uso de Java e Ruby para desenvolvimento  back end de websites.                                                        4. Design e Tecnologia.                                   5. Graus de proficiência: (vazio)</t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "Grau(s) de proficiência para registro de Competência Técnica obrigatória."</t>
+  </si>
+  <si>
+    <t>Mensagem de erro : "Definição de Grau(s) de proficiência para registro de Competência Técnica obrigatórios."</t>
   </si>
 </sst>
 </file>
@@ -409,7 +611,7 @@
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,9 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -786,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A11" zoomScale="42">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="F13" zoomScale="64">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.0" defaultColWidth="10"/>
@@ -799,8 +998,8 @@
     <col min="3" max="3" customWidth="1" width="23.992188" style="0"/>
     <col min="4" max="4" customWidth="1" width="23.992188" style="0"/>
     <col min="5" max="5" customWidth="1" width="23.992188" style="0"/>
-    <col min="6" max="6" customWidth="1" width="10.824219" style="0"/>
-    <col min="7" max="7" customWidth="1" width="10.824219" style="0"/>
+    <col min="6" max="6" customWidth="1" width="29.660156" style="0"/>
+    <col min="7" max="7" customWidth="1" width="29.660156" style="0"/>
     <col min="8" max="8" customWidth="1" width="10.824219" style="0"/>
     <col min="9" max="9" customWidth="1" width="10.824219" style="0"/>
     <col min="10" max="10" customWidth="1" width="10.824219" style="0"/>
@@ -1091,24 +1290,30 @@
       </c>
       <c r="B6"/>
     </row>
-    <row r="8" spans="8:8" ht="16.35">
+    <row r="8" spans="8:8" ht="16.45">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8" ht="32.75">
+        <v>116</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" ht="32.9">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1116,16 +1321,22 @@
         <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8" ht="16.35">
+        <v>76</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" ht="16.45">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1133,16 +1344,22 @@
         <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="8:8" ht="98.25">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" ht="82.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1150,16 +1367,22 @@
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8" ht="180.15">
+        <v>117</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8" ht="197.4">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1167,33 +1390,45 @@
         <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="8:8" ht="98.25">
+        <v>119</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8" ht="98.7">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="8:8" ht="183.85">
+      <c r="G13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8" ht="180.95">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1201,16 +1436,22 @@
         <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8" ht="32.75">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8" ht="65.8">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1218,16 +1459,22 @@
         <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="8:8" ht="32.75">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8" ht="32.9">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1235,42 +1482,57 @@
         <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" ht="16.45">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B17"/>
     </row>
-    <row r="18" spans="8:8" ht="17.0">
+    <row r="18" spans="8:8" ht="16.45">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
+        <v>109</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" ht="16.45">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E19"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="8:8">
       <c r="A20" s="2" t="s">
@@ -1289,7 +1551,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1790,7 +2052,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
